--- a/notes/shopRefreshCalc.xlsx
+++ b/notes/shopRefreshCalc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -70,6 +69,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1508,6 +1575,54 @@
         <v>8</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>15/10/2021</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>23030</v>
+      </c>
+      <c r="C75" t="n">
+        <v>11</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15/10/2021</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>22031</v>
+      </c>
+      <c r="C76" t="n">
+        <v>12</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>21/10/2021</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>22551</v>
+      </c>
+      <c r="C77" t="n">
+        <v>14</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notes/shopRefreshCalc.xlsx
+++ b/notes/shopRefreshCalc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,6 +53,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -69,74 +70,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -429,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,6 +1556,54 @@
         <v>5</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>23/10/2021</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>21871</v>
+      </c>
+      <c r="C78" t="n">
+        <v>11</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>23/10/2021</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>20872</v>
+      </c>
+      <c r="C79" t="n">
+        <v>16</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>23/10/2021</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>19873</v>
+      </c>
+      <c r="C80" t="n">
+        <v>13</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notes/shopRefreshCalc.xlsx
+++ b/notes/shopRefreshCalc.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1604,6 +1604,166 @@
         <v>5</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>27/10/2021</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>20454</v>
+      </c>
+      <c r="C81" t="n">
+        <v>13</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>27/10/2021</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>19455</v>
+      </c>
+      <c r="C82" t="n">
+        <v>18</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10/11/2021</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>22499</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/11/2021</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>21500</v>
+      </c>
+      <c r="C84" t="n">
+        <v>14</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>11/11/2021</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>20501</v>
+      </c>
+      <c r="C85" t="n">
+        <v>17</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>11/11/2021</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>19502</v>
+      </c>
+      <c r="C86" t="n">
+        <v>18</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>11/11/2021</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>18503</v>
+      </c>
+      <c r="C87" t="n">
+        <v>16</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>16/11/2021</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>18747</v>
+      </c>
+      <c r="C88" t="n">
+        <v>14</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>17/11/2021</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>17850</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>17/11/2021</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>16851</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notes/shopRefreshCalc.xlsx
+++ b/notes/shopRefreshCalc.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,6 +1764,86 @@
         <v>2</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>18/11/2021</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>16638</v>
+      </c>
+      <c r="C91" t="n">
+        <v>22</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>18/11/2021</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>15639</v>
+      </c>
+      <c r="C92" t="n">
+        <v>11</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>18/11/2021</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>14640</v>
+      </c>
+      <c r="C93" t="n">
+        <v>19</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>19/11/2021</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>13647</v>
+      </c>
+      <c r="C94" t="n">
+        <v>11</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>19/11/2021</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>12648</v>
+      </c>
+      <c r="C95" t="n">
+        <v>13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notes/shopRefreshCalc.xlsx
+++ b/notes/shopRefreshCalc.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1844,6 +1844,150 @@
         <v>0</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>21319</v>
+      </c>
+      <c r="C96" t="n">
+        <v>12</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>20320</v>
+      </c>
+      <c r="C97" t="n">
+        <v>13</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>19321</v>
+      </c>
+      <c r="C98" t="n">
+        <v>14</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>18322</v>
+      </c>
+      <c r="C99" t="n">
+        <v>17</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>17323</v>
+      </c>
+      <c r="C100" t="n">
+        <v>11</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>16324</v>
+      </c>
+      <c r="C101" t="n">
+        <v>13</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>15325</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>14326</v>
+      </c>
+      <c r="C103" t="n">
+        <v>14</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>16/01/2022</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>13327</v>
+      </c>
+      <c r="C104" t="n">
+        <v>16</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
